--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00104</v>
+        <v>-0.101</v>
       </c>
       <c r="E2">
-        <v>0.187</v>
+        <v>0.0993</v>
       </c>
       <c r="G2">
-        <v>0.0554029116259996</v>
+        <v>0.05756967670011148</v>
       </c>
       <c r="H2">
-        <v>0.0554029116259996</v>
+        <v>0.05756967670011148</v>
       </c>
       <c r="I2">
-        <v>0.02000460323734453</v>
+        <v>0.04094314381270903</v>
       </c>
       <c r="J2">
-        <v>0.01811622303361557</v>
+        <v>0.02623541254018248</v>
       </c>
       <c r="K2">
-        <v>2.88</v>
+        <v>3.56</v>
       </c>
       <c r="L2">
-        <v>0.00590526963297109</v>
+        <v>0.007937569676700111</v>
       </c>
       <c r="M2">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>0.0111018711018711</v>
+        <v>0.006837022476711392</v>
       </c>
       <c r="O2">
-        <v>2.78125</v>
+        <v>2.247191011235955</v>
       </c>
       <c r="P2">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="Q2">
-        <v>0.0111018711018711</v>
+        <v>0.006837022476711392</v>
       </c>
       <c r="R2">
-        <v>2.78125</v>
+        <v>2.247191011235955</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>275.05</v>
+        <v>263.78</v>
       </c>
       <c r="V2">
-        <v>0.3812196812196813</v>
+        <v>0.2254337236133664</v>
       </c>
       <c r="W2">
-        <v>0.02774308652988403</v>
+        <v>0.01217712177121771</v>
       </c>
       <c r="X2">
-        <v>0.04880969540327215</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="Y2">
-        <v>-0.02106660887338812</v>
+        <v>-0.03248675731141674</v>
       </c>
       <c r="Z2">
-        <v>1.704894387491598</v>
+        <v>1.748606183476939</v>
       </c>
       <c r="AA2">
-        <v>-0.02336842105263158</v>
+        <v>0.01675442795595979</v>
       </c>
       <c r="AB2">
-        <v>0.04880969540327215</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="AC2">
-        <v>-0.07217811645590373</v>
+        <v>-0.02790945112667467</v>
       </c>
       <c r="AD2">
-        <v>1.64</v>
+        <v>3.21</v>
       </c>
       <c r="AE2">
-        <v>0.7987750057353801</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.43877500573538</v>
+        <v>3.21</v>
       </c>
       <c r="AG2">
-        <v>-272.6112249942646</v>
+        <v>-260.57</v>
       </c>
       <c r="AH2">
-        <v>0.003368758643596703</v>
+        <v>0.002735849860650638</v>
       </c>
       <c r="AI2">
-        <v>0.00431077930925038</v>
+        <v>0.005670276094751904</v>
       </c>
       <c r="AJ2">
-        <v>-0.6073023879707874</v>
+        <v>-0.2864886259936451</v>
       </c>
       <c r="AK2">
-        <v>-0.9378113241176441</v>
+        <v>-0.8618727880130983</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.1397409679618268</v>
+        <v>0.1557496360989811</v>
       </c>
       <c r="AP2">
-        <v>-23.22863198655969</v>
+        <v>-12.64289180009704</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al Alamiya for Cooperative Insurance Company (SASE:8280)</t>
+          <t>Malath Cooperative Insurance Company (SASE:8020)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00104</v>
+        <v>-0.151</v>
+      </c>
+      <c r="E3">
+        <v>0.151</v>
       </c>
       <c r="G3">
-        <v>0.1940229885057471</v>
+        <v>0.02576419213973799</v>
       </c>
       <c r="H3">
-        <v>0.1940229885057471</v>
+        <v>0.02576419213973799</v>
       </c>
       <c r="I3">
-        <v>0.1664367816091954</v>
+        <v>0.03406113537117904</v>
       </c>
       <c r="J3">
-        <v>0.1664367816091954</v>
+        <v>0.01703056768558952</v>
       </c>
       <c r="K3">
-        <v>7.4</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>0.1701149425287356</v>
+        <v>0.01528384279475982</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,31 +764,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.95</v>
+        <v>44.4</v>
       </c>
       <c r="V3">
-        <v>0.01993942453306411</v>
+        <v>0.1383608600810221</v>
       </c>
       <c r="W3">
-        <v>0.07240704500978473</v>
+        <v>0.02658227848101266</v>
       </c>
       <c r="X3">
-        <v>0.04880969540327215</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="Y3">
-        <v>0.02359734960651258</v>
+        <v>-0.0180816006016218</v>
       </c>
       <c r="Z3">
-        <v>0.4659383033419023</v>
+        <v>25.7625</v>
       </c>
       <c r="AA3">
-        <v>0.07754927163667524</v>
+        <v>0.43875</v>
       </c>
       <c r="AB3">
-        <v>0.04880969540327215</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="AC3">
-        <v>0.02873957623340309</v>
+        <v>0.3940861209173655</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-3.95</v>
+        <v>-44.4</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.02034509399948493</v>
+        <v>-0.1605786618444846</v>
       </c>
       <c r="AK3">
-        <v>-0.03781713738630924</v>
+        <v>-0.5677749360613812</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.5352303523035231</v>
+        <v>-5.999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buruj Cooperative Insurance Company (SASE:8270)</t>
+          <t>Arabian Shield Cooperative Insurance Company (SASE:8070)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,103 +844,100 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.03</v>
+        <v>0.0255</v>
       </c>
       <c r="E4">
-        <v>0.101</v>
+        <v>0.0993</v>
       </c>
       <c r="G4">
-        <v>0.2341696535244922</v>
+        <v>0.04393115942028985</v>
       </c>
       <c r="H4">
-        <v>0.2341696535244922</v>
+        <v>0.04393115942028985</v>
       </c>
       <c r="I4">
-        <v>0.04666959377363111</v>
+        <v>0.09329710144927536</v>
       </c>
       <c r="J4">
-        <v>0.04666959377363111</v>
+        <v>0.06567028985507246</v>
       </c>
       <c r="K4">
-        <v>5.17</v>
+        <v>7.2</v>
       </c>
       <c r="L4">
-        <v>0.06176821983273596</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="M4">
-        <v>8.01</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.05211450878334418</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>1.549323017408124</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>8.01</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.05211450878334418</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>1.549323017408124</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>51.1</v>
+        <v>135.2</v>
       </c>
       <c r="V4">
-        <v>0.3324658425504229</v>
+        <v>0.6987080103359172</v>
       </c>
       <c r="W4">
-        <v>0.04319131161236425</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="X4">
-        <v>0.04918555166912479</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="Y4">
-        <v>-0.005994240056760546</v>
+        <v>0.01751228672047436</v>
       </c>
       <c r="Z4">
-        <v>1.190632411349576</v>
+        <v>5.632653061224492</v>
       </c>
       <c r="AA4">
-        <v>0.05556633097140356</v>
+        <v>0.3698979591836736</v>
       </c>
       <c r="AB4">
-        <v>0.04884319574408093</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="AC4">
-        <v>0.006723135227322624</v>
+        <v>0.3252340801010392</v>
       </c>
       <c r="AD4">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.7987750057353801</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.43877500573538</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-48.66122499426462</v>
+        <v>-135.2</v>
       </c>
       <c r="AH4">
-        <v>0.01561927846331443</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01951976082383893</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.4632691593328997</v>
+        <v>-2.319039451114922</v>
       </c>
       <c r="AK4">
-        <v>-0.6590199389207756</v>
+        <v>10.01481481481482</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.3680430879712747</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-10.92038262887447</v>
+        <v>-12.75471698113208</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Malath Cooperative Insurance Company (SASE:8020)</t>
+          <t>Al Alamiya for Cooperative Insurance Company (SASE:8280)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,25 +969,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0472</v>
+        <v>-0.101</v>
+      </c>
+      <c r="E5">
+        <v>-0.276</v>
       </c>
       <c r="G5">
-        <v>0.02738225629791895</v>
+        <v>0.1984802431610942</v>
       </c>
       <c r="H5">
-        <v>0.02738225629791895</v>
+        <v>0.1984802431610942</v>
       </c>
       <c r="I5">
-        <v>-0.01215772179627602</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J5">
-        <v>-0.01215772179627602</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="K5">
-        <v>-4.3</v>
+        <v>1.32</v>
       </c>
       <c r="L5">
-        <v>-0.02354874041621029</v>
+        <v>0.04012158054711246</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -996,7 +999,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1005,37 +1008,37 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>110.5</v>
+        <v>3.78</v>
       </c>
       <c r="V5">
-        <v>0.8240119313944818</v>
+        <v>0.01415200299513291</v>
       </c>
       <c r="W5">
-        <v>-0.03434504792332268</v>
+        <v>0.01217712177121771</v>
       </c>
       <c r="X5">
-        <v>0.04880969540327215</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="Y5">
-        <v>-0.08315474332659484</v>
+        <v>-0.03248675731141674</v>
       </c>
       <c r="Z5">
-        <v>1.922105263157895</v>
+        <v>0.314983245572044</v>
       </c>
       <c r="AA5">
-        <v>-0.02336842105263158</v>
+        <v>0.01675442795595979</v>
       </c>
       <c r="AB5">
-        <v>0.04880969540327215</v>
+        <v>0.04466387908263446</v>
       </c>
       <c r="AC5">
-        <v>-0.07217811645590373</v>
+        <v>-0.02790945112667467</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1047,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-110.5</v>
+        <v>-3.78</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1056,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-4.68220338983051</v>
+        <v>-0.01435515722315054</v>
       </c>
       <c r="AK5">
-        <v>-13.8125</v>
+        <v>-0.0355530474040632</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1068,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>61.38888888888889</v>
+        <v>-0.9692307692307692</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>United Cooperative Assurance Company (SASE:8190)</t>
+          <t>Buruj Cooperative Insurance Company (SASE:8270)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1091,97 +1094,100 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.304</v>
+        <v>-0.0941</v>
       </c>
       <c r="G6">
-        <v>-0.4277929155313351</v>
+        <v>0.07555178268251274</v>
       </c>
       <c r="H6">
-        <v>-0.4277929155313351</v>
+        <v>0.07555178268251274</v>
       </c>
       <c r="I6">
-        <v>-0.2498637602179836</v>
+        <v>0.01057724957555178</v>
       </c>
       <c r="J6">
-        <v>-0.2498637602179836</v>
+        <v>0.005288624787775892</v>
       </c>
       <c r="K6">
-        <v>-8.5</v>
+        <v>-2.12</v>
       </c>
       <c r="L6">
-        <v>-0.2316076294277929</v>
+        <v>-0.03599320882852292</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>8</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.03877847794474067</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-3.773584905660377</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.03877847794474067</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-3.773584905660377</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>25.8</v>
+        <v>41.4</v>
       </c>
       <c r="V6">
-        <v>0.2657054582904222</v>
+        <v>0.2006786233640329</v>
       </c>
       <c r="W6">
-        <v>-0.0792910447761194</v>
+        <v>-0.01730612244897959</v>
       </c>
       <c r="X6">
-        <v>0.04880969540327215</v>
+        <v>0.04483118468605012</v>
       </c>
       <c r="Y6">
-        <v>-0.1281007401793915</v>
+        <v>-0.06213730713502971</v>
       </c>
       <c r="Z6">
-        <v>0.6808905380333951</v>
+        <v>0.8064074479737131</v>
       </c>
       <c r="AA6">
-        <v>-0.1701298701298701</v>
+        <v>0.004264786418400877</v>
       </c>
       <c r="AB6">
-        <v>0.04880969540327215</v>
+        <v>0.0446871719643455</v>
       </c>
       <c r="AC6">
-        <v>-0.2189395655331422</v>
+        <v>-0.04042238554594462</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG6">
-        <v>-25.8</v>
+        <v>-40.18</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.005878951426368542</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01061608075182736</v>
       </c>
       <c r="AJ6">
-        <v>-0.361851332398317</v>
+        <v>-0.2418733445701902</v>
       </c>
       <c r="AK6">
-        <v>-0.3568464730290457</v>
+        <v>-0.5465179542981501</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1190,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>-0</v>
+        <v>1.150943396226415</v>
       </c>
       <c r="AP6">
-        <v>2.96551724137931</v>
+        <v>-37.90566037735849</v>
       </c>
     </row>
     <row r="7">
@@ -1204,7 +1210,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arabian Shield Cooperative Insurance Company (SASE:8070)</t>
+          <t>United Cooperative Assurance Company (SASE:8190)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1213,28 +1219,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.138</v>
-      </c>
-      <c r="E7">
-        <v>0.273</v>
+        <v>-0.288</v>
       </c>
       <c r="G7">
-        <v>0.06855524079320113</v>
+        <v>0.1164179104477612</v>
       </c>
       <c r="H7">
-        <v>0.06855524079320113</v>
+        <v>0.1164179104477612</v>
       </c>
       <c r="I7">
-        <v>0.07082152974504249</v>
+        <v>-0.07661691542288557</v>
       </c>
       <c r="J7">
-        <v>0.03739472962768797</v>
+        <v>-0.07661691542288557</v>
       </c>
       <c r="K7">
-        <v>3.11</v>
+        <v>-5.99</v>
       </c>
       <c r="L7">
-        <v>0.02202549575070822</v>
+        <v>-0.1490049751243781</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1243,7 +1246,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1252,61 +1255,61 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>83.7</v>
+        <v>39</v>
       </c>
       <c r="V7">
-        <v>0.604332129963899</v>
+        <v>0.2139330773450356</v>
       </c>
       <c r="W7">
-        <v>0.02774308652988403</v>
+        <v>-0.06106014271151886</v>
       </c>
       <c r="X7">
-        <v>0.04880969540327215</v>
+        <v>0.04497270681439285</v>
       </c>
       <c r="Y7">
-        <v>-0.02106660887338812</v>
+        <v>-0.1060328495259117</v>
       </c>
       <c r="Z7">
-        <v>-5.328301886792453</v>
+        <v>0.7821011673151752</v>
       </c>
       <c r="AA7">
-        <v>-0.1992504084313034</v>
+        <v>-0.05992217898832685</v>
       </c>
       <c r="AB7">
-        <v>0.04880969540327215</v>
+        <v>0.04470666241964705</v>
       </c>
       <c r="AC7">
-        <v>-0.2480601038345756</v>
+        <v>-0.1046288414079739</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AG7">
-        <v>-83.7</v>
+        <v>-37.01</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.01079819849150795</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.02055997520405001</v>
       </c>
       <c r="AJ7">
-        <v>-1.527372262773723</v>
+        <v>-0.254731915479386</v>
       </c>
       <c r="AK7">
-        <v>-2.607476635514019</v>
+        <v>-0.6404222183768817</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1315,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>-0.8468085106382979</v>
       </c>
       <c r="AP7">
-        <v>-8.048076923076923</v>
+        <v>15.74893617021277</v>
       </c>
     </row>
   </sheetData>
